--- a/APF/QA/RA006/QAP001_APF_RA006_APF0401_功能清單資料轉入.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0401_功能清單資料轉入.xlsx
@@ -19,9 +19,6 @@
     <sheet name="檢視重點項目" sheetId="26" r:id="rId5"/>
     <sheet name="檢視項目清單" sheetId="27" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">修訂履歷!$B$3:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">檢視重點項目!$A$1:$L$173</definedName>
@@ -157,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="404">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2400,9 +2397,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>SA PM-3</t>
-  </si>
-  <si>
     <t>懿信</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2461,10 +2455,21 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>考慮不足</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>懿信、傳勝、英杰、慕霖、鈺杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳懿信</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA PM-1</t>
   </si>
 </sst>
 </file>
@@ -4006,211 +4011,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="修訂履歷"/>
-      <sheetName val="檢視記錄"/>
-      <sheetName val="改善明細"/>
-      <sheetName val="備註說明"/>
-      <sheetName val="檢視重點項目"/>
-      <sheetName val="檢視項目清單"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>文件名稱：</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Review階段-第N次</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>對應完成</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>SA PM-1</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>SA PM-1</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>SA PM-2</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>SD PM-3</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>SD PM-3</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>SD PM-3</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -4765,10 +4565,10 @@
   <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4897,23 +4697,23 @@
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$26,"&gt;""")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$26)</f>
-        <v>9.6666666666666643</v>
+        <v>10.499999999999995</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$26)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="109">
         <f ca="1">SUM($O$7:$O$26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="110">
         <f ca="1">F5-G5</f>
@@ -4998,13 +4798,13 @@
         <v>379</v>
       </c>
       <c r="D7" s="140" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E7" s="66">
         <v>41586</v>
       </c>
       <c r="F7" s="140" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G7" s="66">
         <v>41586</v>
@@ -5019,22 +4819,22 @@
         <v>4</v>
       </c>
       <c r="K7" s="68" t="s">
+        <v>388</v>
+      </c>
+      <c r="L7" s="69" t="s">
         <v>389</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>390</v>
       </c>
       <c r="M7" s="70">
         <f>IF(C7="","",J7*(I7-H7)*24)</f>
         <v>9.6666666666666643</v>
       </c>
       <c r="N7" s="63">
-        <f ca="1">IF(C7="","",COUNTIF([1]改善明細!A:A,Q7))</f>
-        <v>2</v>
+        <f ca="1">IF(C7="","",COUNTIF(改善明細!A:A,Q7))</f>
+        <v>3</v>
       </c>
       <c r="O7" s="63">
-        <f ca="1">IF(C7="","",COUNTIFS([1]改善明細!$A:$A,Q7, [1]改善明細!$J:$J,"V"))</f>
-        <v>2</v>
+        <f ca="1">IF(C7="","",COUNTIFS(改善明細!$A:$A,Q7, 改善明細!$J:$J,"V"))</f>
+        <v>3</v>
       </c>
       <c r="P7" s="71" t="str">
         <f t="shared" ref="P7:P10" ca="1" si="0">IF(Q7="","",LEFT(Q7,FIND("-",Q7)-1))</f>
@@ -5046,28 +4846,62 @@
       </c>
       <c r="R7" s="72"/>
     </row>
-    <row r="8" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A8" s="64"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
+    <row r="8" spans="1:20" s="55" customFormat="1" ht="33">
+      <c r="A8" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" s="66">
+        <v>41598</v>
+      </c>
+      <c r="F8" s="140" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" s="66">
+        <v>41598</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J8" s="65">
+        <v>5</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>401</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="M8" s="70">
+        <f>IF(C8="","",J8*(I8-H8)*24)</f>
+        <v>0.83333333333333037</v>
+      </c>
+      <c r="N8" s="63">
+        <f>IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="63">
+        <f>IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
+        <v>0</v>
+      </c>
       <c r="P8" s="71" t="str">
         <f t="shared" ref="P8" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
         <v>SA PM</v>
       </c>
-      <c r="Q8" s="71" t="s">
-        <v>385</v>
+      <c r="Q8" s="71" t="str">
+        <f>IF(OR(A8="",B8=""),"",A8&amp;"-"&amp;B8)</f>
+        <v>SA PM-2</v>
       </c>
       <c r="R8" s="72"/>
     </row>
@@ -5085,8 +4919,14 @@
       <c r="K9" s="68"/>
       <c r="L9" s="69"/>
       <c r="M9" s="70"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
+      <c r="N9" s="63" t="str">
+        <f>IF(C9="","",COUNTIF(改善明細!A:A,Q9))</f>
+        <v/>
+      </c>
+      <c r="O9" s="63" t="str">
+        <f>IF(C9="","",COUNTIFS(改善明細!$A:$A,Q9, 改善明細!$J:$J,"V"))</f>
+        <v/>
+      </c>
       <c r="P9" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5111,8 +4951,14 @@
       <c r="K10" s="68"/>
       <c r="L10" s="69"/>
       <c r="M10" s="70"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
+      <c r="N10" s="63" t="str">
+        <f>IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
+        <v/>
+      </c>
+      <c r="O10" s="63" t="str">
+        <f>IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
+        <v/>
+      </c>
       <c r="P10" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6001,10 +5847,10 @@
   <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -6099,25 +5945,25 @@
     </row>
     <row r="3" spans="1:18" s="23" customFormat="1" ht="39" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>381</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>383</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H3" s="91">
         <v>41589</v>
@@ -6130,7 +5976,7 @@
         <v>V</v>
       </c>
       <c r="K3" s="89" t="str">
-        <f t="shared" ref="K3" si="0">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
+        <f t="shared" ref="K3:K5" si="0">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
         <v/>
       </c>
       <c r="L3" s="90" t="str">
@@ -6144,25 +5990,25 @@
     </row>
     <row r="4" spans="1:18" s="23" customFormat="1" ht="49.5">
       <c r="A4" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>382</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>383</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H4" s="91">
         <v>41589</v>
@@ -6170,10 +6016,14 @@
       <c r="I4" s="91">
         <v>41589</v>
       </c>
-      <c r="J4" s="89" t="s">
-        <v>400</v>
-      </c>
-      <c r="K4" s="89"/>
+      <c r="J4" s="89" t="str">
+        <f>IF(I4="","","V")</f>
+        <v>V</v>
+      </c>
+      <c r="K4" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="L4" s="90" t="str">
         <f t="shared" ref="L4:L11" si="2">IF(A4="","",LEFT(A4,FIND("-",A4)-1))</f>
         <v>SA PM</v>
@@ -6185,25 +6035,25 @@
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="106.5" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>384</v>
       </c>
       <c r="C5" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>398</v>
-      </c>
       <c r="E5" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>383</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H5" s="91">
         <v>41589</v>
@@ -6215,7 +6065,10 @@
         <f>IF(I5="","","V")</f>
         <v>V</v>
       </c>
-      <c r="K5" s="89"/>
+      <c r="K5" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="L5" s="90" t="str">
         <f t="shared" si="2"/>
         <v>SA PM</v>

--- a/APF/QA/RA006/QAP001_APF_RA006_APF0401_功能清單資料轉入.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0401_功能清單資料轉入.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a8907010\Documents\suda3g\9. 品質管理\9.3 文件檢視記錄統計\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1395" yWindow="180" windowWidth="10920" windowHeight="5700" tabRatio="549" activeTab="2"/>
   </bookViews>
@@ -23,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">修訂履歷!$B$3:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">檢視重點項目!$A$1:$L$173</definedName>
     <definedName name="review階段">備註說明!$G$2:$G$12</definedName>
-    <definedName name="次數選單">檢視記錄!$Q$7:$Q$21</definedName>
+    <definedName name="次數選單">檢視記錄!$Q$7:$Q$20</definedName>
     <definedName name="原因工程">備註說明!$B$2:$B$6</definedName>
     <definedName name="原因分類">備註說明!$D$2:$D$8</definedName>
     <definedName name="植入Bug來源">備註說明!$A$2:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -39,7 +34,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="1" shapeId="0">
+    <comment ref="Q6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -124,7 +119,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="410">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2461,15 +2456,37 @@
     <t>OK</t>
   </si>
   <si>
-    <t>懿信、傳勝、英杰、慕霖、鈺杰</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>陳懿信</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SA PM-1</t>
+  </si>
+  <si>
+    <t>SA PM-2</t>
+  </si>
+  <si>
+    <t>傳勝、懿信、英杰、慕霖、鈺杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD未標列 IPO圖，應補增</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>如左列所示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>懿信</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能設計</t>
   </si>
 </sst>
 </file>
@@ -3948,13 +3965,13 @@
     <cellStyle name="輔色4" xfId="33" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="35" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="標準_障害" xfId="36"/>
     <cellStyle name="標題" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="標題 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標題 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="標題 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標題 4" xfId="41" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="輸入" xfId="43" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="45" builtinId="23" customBuiltin="1"/>
@@ -4054,7 +4071,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4089,7 +4106,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4562,13 +4579,13 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4696,28 +4713,28 @@
         <v>282</v>
       </c>
       <c r="C5" s="99">
-        <f>COUNTIF($C$7:$C$26,"&gt;""")</f>
+        <f>COUNTIF($C$7:$C$25,"&gt;""")</f>
         <v>2</v>
       </c>
       <c r="D5" s="108">
-        <f>SUM($M$7:$M$26)</f>
+        <f>SUM($M$7:$M$25)</f>
         <v>10.499999999999995</v>
       </c>
       <c r="E5" s="99">
-        <f>SUM($J$7:$J$26)</f>
+        <f>SUM($J$7:$J$25)</f>
         <v>9</v>
       </c>
       <c r="F5" s="109">
-        <f ca="1">SUM($N$7:$N$26)</f>
-        <v>3</v>
+        <f ca="1">SUM($N$7:$N$25)</f>
+        <v>4</v>
       </c>
       <c r="G5" s="109">
-        <f ca="1">SUM($O$7:$O$26)</f>
+        <f ca="1">SUM($O$7:$O$25)</f>
         <v>3</v>
       </c>
       <c r="H5" s="110">
         <f ca="1">F5-G5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="58"/>
@@ -4837,7 +4854,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="71" t="str">
-        <f t="shared" ref="P7:P10" ca="1" si="0">IF(Q7="","",LEFT(Q7,FIND("-",Q7)-1))</f>
+        <f t="shared" ref="P7:P9" ca="1" si="0">IF(Q7="","",LEFT(Q7,FIND("-",Q7)-1))</f>
         <v>SA PM</v>
       </c>
       <c r="Q7" s="71" t="str">
@@ -4857,7 +4874,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="140" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E8" s="66">
         <v>41598</v>
@@ -4878,7 +4895,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="68" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L8" s="69" t="s">
         <v>389</v>
@@ -4889,7 +4906,7 @@
       </c>
       <c r="N8" s="63">
         <f>IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="63">
         <f>IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
@@ -4932,25 +4949,31 @@
         <v/>
       </c>
       <c r="Q9" s="71" t="str">
-        <f t="shared" ref="Q9:Q19" si="2">IF(OR(A9="",B9=""),"",A9&amp;"-"&amp;B9)</f>
+        <f>IF(OR(A9="",B9=""),"",A9&amp;"-"&amp;B9)</f>
         <v/>
       </c>
       <c r="R9" s="74"/>
     </row>
     <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A10" s="64"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="str">
+        <f ca="1">IF(A10="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B10,,-1,,),OFFSET(B10,,-1,,)))</f>
+        <v/>
+      </c>
       <c r="C10" s="65"/>
-      <c r="D10" s="140"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="66"/>
-      <c r="F10" s="140"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="66"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
       <c r="J10" s="65"/>
       <c r="K10" s="68"/>
       <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
+      <c r="M10" s="70" t="str">
+        <f t="shared" ref="M10:M18" si="2">IF(C10="","",J10*(I10-H10)*24)</f>
+        <v/>
+      </c>
       <c r="N10" s="63" t="str">
         <f>IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
         <v/>
@@ -4960,11 +4983,11 @@
         <v/>
       </c>
       <c r="P10" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P10:P18" ca="1" si="3">IF(Q10="","",LEFT(Q10,FIND("-",Q10)-1))</f>
         <v/>
       </c>
       <c r="Q10" s="71" t="str">
-        <f>IF(OR(A10="",B10=""),"",A10&amp;"-"&amp;B10)</f>
+        <f t="shared" ref="Q10:Q18" ca="1" si="4">IF(OR(A10="",B10=""),"",A10&amp;"-"&amp;B10)</f>
         <v/>
       </c>
       <c r="R10" s="74"/>
@@ -4986,7 +5009,7 @@
       <c r="K11" s="68"/>
       <c r="L11" s="69"/>
       <c r="M11" s="70" t="str">
-        <f t="shared" ref="M11:M19" si="3">IF(C11="","",J11*(I11-H11)*24)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N11" s="63" t="str">
@@ -4998,11 +5021,11 @@
         <v/>
       </c>
       <c r="P11" s="71" t="str">
-        <f t="shared" ref="P11:P19" ca="1" si="4">IF(Q11="","",LEFT(Q11,FIND("-",Q11)-1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Q11" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R11" s="74"/>
@@ -5024,7 +5047,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="69"/>
       <c r="M12" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N12" s="63" t="str">
@@ -5036,11 +5059,11 @@
         <v/>
       </c>
       <c r="P12" s="71" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q12" s="71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q12" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R12" s="74"/>
@@ -5062,7 +5085,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="69"/>
       <c r="M13" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N13" s="63" t="str">
@@ -5074,11 +5097,11 @@
         <v/>
       </c>
       <c r="P13" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Q13" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(OR(A13="",B13=""),"",A13&amp;"-"&amp;B13)</f>
         <v/>
       </c>
       <c r="R13" s="74"/>
@@ -5100,7 +5123,7 @@
       <c r="K14" s="68"/>
       <c r="L14" s="69"/>
       <c r="M14" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N14" s="63" t="str">
@@ -5112,11 +5135,11 @@
         <v/>
       </c>
       <c r="P14" s="71" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q14" s="71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q14" s="71" t="str">
-        <f ca="1">IF(OR(A14="",B14=""),"",A14&amp;"-"&amp;B14)</f>
         <v/>
       </c>
       <c r="R14" s="74"/>
@@ -5138,7 +5161,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="69"/>
       <c r="M15" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N15" s="63" t="str">
@@ -5150,11 +5173,11 @@
         <v/>
       </c>
       <c r="P15" s="71" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q15" s="71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q15" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R15" s="74"/>
@@ -5176,7 +5199,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="69"/>
       <c r="M16" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N16" s="63" t="str">
@@ -5188,11 +5211,11 @@
         <v/>
       </c>
       <c r="P16" s="71" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q16" s="71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q16" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R16" s="74"/>
@@ -5214,7 +5237,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="69"/>
       <c r="M17" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N17" s="63" t="str">
@@ -5226,11 +5249,11 @@
         <v/>
       </c>
       <c r="P17" s="71" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q17" s="71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q17" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R17" s="74"/>
@@ -5252,7 +5275,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="69"/>
       <c r="M18" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N18" s="63" t="str">
@@ -5264,11 +5287,11 @@
         <v/>
       </c>
       <c r="P18" s="71" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q18" s="71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q18" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R18" s="74"/>
@@ -5279,7 +5302,7 @@
         <f ca="1">IF(A19="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B19,,-1,,),OFFSET(B19,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66"/>
       <c r="F19" s="65"/>
@@ -5289,11 +5312,11 @@
       <c r="J19" s="65"/>
       <c r="K19" s="68"/>
       <c r="L19" s="69"/>
-      <c r="M19" s="70" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N19" s="63" t="str">
+      <c r="M19" s="82" t="str">
+        <f>IF(C19="","",J19*(I19-H19)*24)</f>
+        <v/>
+      </c>
+      <c r="N19" s="81" t="str">
         <f>IF(C19="","",COUNTIF(改善明細!A:A,Q19))</f>
         <v/>
       </c>
@@ -5301,63 +5324,29 @@
         <f>IF(C19="","",COUNTIFS(改善明細!$A:$A,Q19, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P19" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q19" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="P19" s="83" t="str">
+        <f ca="1">IF(Q19="","",LEFT(Q19,FIND("-",Q19)-1))</f>
+        <v/>
+      </c>
+      <c r="Q19" s="83" t="str">
+        <f ca="1">IF(OR(A19="",B19=""),"",A19&amp;"-"&amp;B19)</f>
         <v/>
       </c>
       <c r="R19" s="74"/>
     </row>
-    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.5">
-      <c r="A20" s="64"/>
-      <c r="B20" s="1" t="str">
-        <f ca="1">IF(A20="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B20,,-1,,),OFFSET(B20,,-1,,)))</f>
-        <v/>
-      </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="82" t="str">
-        <f>IF(C20="","",J20*(I20-H20)*24)</f>
-        <v/>
-      </c>
-      <c r="N20" s="81" t="str">
-        <f>IF(C20="","",COUNTIF(改善明細!A:A,Q20))</f>
-        <v/>
-      </c>
-      <c r="O20" s="63" t="str">
-        <f>IF(C20="","",COUNTIFS(改善明細!$A:$A,Q20, 改善明細!$J:$J,"V"))</f>
-        <v/>
-      </c>
-      <c r="P20" s="83" t="str">
-        <f ca="1">IF(Q20="","",LEFT(Q20,FIND("-",Q20)-1))</f>
-        <v/>
-      </c>
-      <c r="Q20" s="83" t="str">
-        <f ca="1">IF(OR(A20="",B20=""),"",A20&amp;"-"&amp;B20)</f>
-        <v/>
-      </c>
+    <row r="20" spans="1:18" s="55" customFormat="1">
+      <c r="A20" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="74"/>
       <c r="R20" s="74"/>
     </row>
     <row r="21" spans="1:18" s="55" customFormat="1">
-      <c r="A21" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="76"/>
       <c r="O21" s="58"/>
       <c r="P21" s="58"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
     </row>
     <row r="22" spans="1:18" s="55" customFormat="1">
       <c r="O22" s="58"/>
@@ -5487,9 +5476,25 @@
       <c r="O53" s="58"/>
       <c r="P53" s="58"/>
     </row>
-    <row r="54" spans="1:18" s="55" customFormat="1">
+    <row r="54" spans="1:18" s="59" customFormat="1">
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
       <c r="O54" s="58"/>
       <c r="P54" s="58"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
     </row>
     <row r="55" spans="1:18" s="59" customFormat="1">
       <c r="A55" s="55"/>
@@ -5791,26 +5796,6 @@
       <c r="Q69" s="55"/>
       <c r="R69" s="55"/>
     </row>
-    <row r="70" spans="1:18" s="59" customFormat="1">
-      <c r="A70" s="55"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="58"/>
-      <c r="P70" s="58"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="55"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1"/>
   <phoneticPr fontId="20" type="noConversion"/>
@@ -5818,13 +5803,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E2">
       <formula1>"ALL:PJ全體,HCM:總部共通,HMS:Master,HMSB:Master基本,HMSE:Master活動,HEO:EOS,HIA:情報分析,HIS:情報發信,HAI:AP基盤,HHI:INFRA,HNW:NW,SCM:門市共通,SSC:SC,SPS:POS,SGT:GOT"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B20">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B19">
       <formula1>IF(A7="","",IF(A7&lt;&gt;OFFSET(A7,-1,,,),1,OFFSET(B7,-1,,,)+1))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C19">
       <formula1>"再Review,OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A19">
       <formula1>review階段</formula1>
     </dataValidation>
   </dataValidations>
@@ -5847,10 +5832,10 @@
   <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -5945,7 +5930,7 @@
     </row>
     <row r="3" spans="1:18" s="23" customFormat="1" ht="39" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>381</v>
@@ -6079,20 +6064,34 @@
       <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:18" s="23" customFormat="1" ht="16.5">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>409</v>
+      </c>
       <c r="G6" s="46"/>
-      <c r="H6" s="91"/>
+      <c r="H6" s="91">
+        <v>41600</v>
+      </c>
       <c r="I6" s="91"/>
       <c r="J6" s="89"/>
       <c r="K6" s="89"/>
       <c r="L6" s="90" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M6" s="90"/>
       <c r="N6" s="36"/>
